--- a/public/templates/mau-nhap-lop.xlsx
+++ b/public/templates/mau-nhap-lop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLSV-KQHT\Frontend\quanlysinhvien-ketquahoctap_frontend\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -147,7 +147,23 @@
     <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -158,6 +174,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A1:E6"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="STT"/>
+    <tableColumn id="2" name="Mã Lớp Niên Chế"/>
+    <tableColumn id="3" name="Tên Lớp Niên Chế"/>
+    <tableColumn id="4" name="Mã Ngành"/>
+    <tableColumn id="5" name="Mã Niên Khoá"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,7 +456,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,5 +573,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/public/templates/mau-nhap-lop.xlsx
+++ b/public/templates/mau-nhap-lop.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QLSV-KQHT\Frontend\quanlysinhvien-ketquahoctap_frontend\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DU AN QUAN LY SINH VIEN VA KET QUA HOC TAP\Frontend\free-nextjs-admin-dashboard-main\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4BECF2-7C81-4E95-98F2-443BB3BA4271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,18 +30,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Mã Lớp Niên Chế</t>
-  </si>
-  <si>
-    <t>Tên Lớp Niên Chế</t>
-  </si>
-  <si>
-    <t>Mã Ngành</t>
-  </si>
-  <si>
-    <t>Mã Niên Khoá</t>
-  </si>
-  <si>
     <t>CNTT_D2022A</t>
   </si>
   <si>
@@ -81,12 +70,24 @@
   </si>
   <si>
     <t>GDTH</t>
+  </si>
+  <si>
+    <t>Mã Niên Khoá (Required)</t>
+  </si>
+  <si>
+    <t>Mã Ngành (Required)</t>
+  </si>
+  <si>
+    <t>Tên Lớp Niên Chế (Required)</t>
+  </si>
+  <si>
+    <t>Mã Lớp Niên Chế (Required)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,19 +150,19 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -177,14 +178,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" headerRowCellStyle="Heading 3">
-  <autoFilter ref="A1:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0" headerRowCellStyle="Heading 3">
+  <autoFilter ref="A1:E6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="STT"/>
-    <tableColumn id="2" name="Mã Lớp Niên Chế"/>
-    <tableColumn id="3" name="Tên Lớp Niên Chế"/>
-    <tableColumn id="4" name="Mã Ngành"/>
-    <tableColumn id="5" name="Mã Niên Khoá"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mã Lớp Niên Chế (Required)"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tên Lớp Niên Chế (Required)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Mã Ngành (Required)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mã Niên Khoá (Required)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -452,20 +453,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.28515625" customWidth="1"/>
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -474,16 +475,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -491,16 +492,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -508,16 +509,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -525,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -542,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -559,16 +560,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
